--- a/Football.xlsx
+++ b/Football.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prateek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NodeJS file converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Details" sheetId="7" r:id="rId1"/>
     <sheet name="La Liga" sheetId="1" r:id="rId2"/>
     <sheet name="Premier League" sheetId="11" r:id="rId3"/>
-    <sheet name="Premier League (2)" sheetId="12" r:id="rId4"/>
+    <sheet name="Serie A" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
